--- a/SSS小组/小组工作日志.xlsx
+++ b/SSS小组/小组工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>刘芳</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,34 @@
   </si>
   <si>
     <t>编写后台代码（课程列表、课程详情）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习SSH框架，编写系统架构设计报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面原型制作（首页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时序图（登录、学习、查询课程）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时序图（注册、在线测评、管理课程）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面制作（登录、注册、教师个人中心）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习SSH框架编写代码，绘制系统架构图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究类图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -858,6 +886,115 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>42615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SSS小组/小组工作日志.xlsx
+++ b/SSS小组/小组工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView minimized="1" xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t>刘芳</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>研究类图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习SSH框架，原型界面制作（学生个人中心，练习、测试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习SSH框架编写代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写精华阶段评审报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -994,6 +1006,114 @@
         <v>8</v>
       </c>
       <c r="D36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>42616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2">
         <v>1</v>
       </c>
     </row>

--- a/SSS小组/小组工作日志.xlsx
+++ b/SSS小组/小组工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>刘芳</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习SSH框架，编写系统架构设计报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>界面原型制作（首页）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,15 +166,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习SSH框架，原型界面制作（学生个人中心，练习、测试）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习SSH框架编写代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写精华阶段评审报告</t>
+    <t>原型界面制作（个人中心），编写系统架构设计报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型界面制作（课程评价），完成时序图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型界面制作（主页），完成时序图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写大数据算法应用报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写精华阶段评审报告，原型界面制作（课程主页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习相关技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型界面制作（练习、测试、编辑个人信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面制作（作业与测试）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -916,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -930,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -944,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -958,7 +974,7 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>8</v>
@@ -972,7 +988,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -986,7 +1002,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -1000,7 +1016,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -1030,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -1044,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -1058,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -1071,6 +1087,9 @@
       <c r="A42" t="s">
         <v>9</v>
       </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
       <c r="C42">
         <v>8</v>
       </c>
@@ -1081,6 +1100,9 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -1094,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <v>8</v>
@@ -1108,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>8</v>

--- a/SSS小组/小组工作日志.xlsx
+++ b/SSS小组/小组工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>刘芳</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,15 +186,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习相关技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原型界面制作（练习、测试、编辑个人信息）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>界面制作（作业与测试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台代码编写（登录、注册）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善用例图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端代码编写（学生个人中心，考试），学习spring框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善系统架构报告（添加通用功能设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善系统架构报告（修改E-R图）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善系统架构报告（修改E-R图）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习相关技术JAVA EE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习相关技术JAVA EE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1046,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -1116,7 +1144,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44">
         <v>8</v>
@@ -1130,12 +1158,126 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C45">
         <v>8</v>
       </c>
       <c r="D45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>42617</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2">
         <v>1</v>
       </c>
     </row>
